--- a/data/demo/units/auxUnits.xlsx
+++ b/data/demo/units/auxUnits.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/demoData/toy cement/units/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\demo\units\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A942D8E-340E-8048-84AB-0DD479668C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1160" windowWidth="26840" windowHeight="15540" activeTab="1" xr2:uid="{BFA2CBFC-1255-CF45-9946-809990A37948}"/>
+    <workbookView xWindow="1920" yWindow="1155" windowWidth="26835" windowHeight="15540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="c CO2 Capture" sheetId="1" r:id="rId1"/>
@@ -113,9 +112,6 @@
     <t>Combustion</t>
   </si>
   <si>
-    <t>combustEff</t>
-  </si>
-  <si>
     <t>waste heat</t>
   </si>
   <si>
@@ -168,12 +164,15 @@
   </si>
   <si>
     <t>charcoal</t>
+  </si>
+  <si>
+    <t>combustion eff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -518,16 +517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83A6CCF-4B2C-AF44-8EAD-F352AB2A184C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -567,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -587,7 +586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -607,7 +606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -633,18 +632,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC40800-896A-AF46-B07B-1D1639E40452}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -653,20 +652,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -676,9 +675,9 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -687,9 +686,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0.6</v>
@@ -698,9 +697,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -709,9 +708,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -726,16 +725,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC57C1F-A666-8E46-83D3-5B810E4EB49E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -778,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -801,7 +800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -827,18 +826,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5A1151-B238-DA46-BAC9-5709F808E66A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -847,20 +846,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
       </c>
       <c r="B3">
         <v>0.3</v>
@@ -869,9 +868,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -880,9 +879,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -891,9 +890,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.45</v>
@@ -902,9 +901,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.25</v>
@@ -919,16 +918,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007109D-0238-A346-A201-FF6F363E2840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -968,7 +967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -985,10 +984,10 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -996,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1014,46 +1013,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03997F4-E1D8-8144-B57D-72E42DBE9838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -1062,12 +1061,12 @@
         <v>0.8</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.85</v>
@@ -1076,12 +1075,12 @@
         <v>0.85</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.6</v>
@@ -1090,12 +1089,12 @@
         <v>0.8</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -1104,12 +1103,12 @@
         <v>0.8</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.85</v>
@@ -1118,7 +1117,7 @@
         <v>0.85</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
